--- a/artigos_sciencedirect/SelecaoFase1 - Saulo.xlsx
+++ b/artigos_sciencedirect/SelecaoFase1 - Saulo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t xml:space="preserve">author</t>
   </si>
@@ -218,7 +218,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -233,10 +233,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -281,7 +277,7 @@
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -341,8 +337,8 @@
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -358,8 +354,8 @@
         <v>13</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
@@ -371,9 +367,12 @@
       <c r="C4" s="0" t="n">
         <v>2014</v>
       </c>
+      <c r="E4" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
@@ -385,23 +384,32 @@
       <c r="C5" s="0" t="n">
         <v>2014</v>
       </c>
+      <c r="E5" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="135.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="4" t="n">
         <v>2019</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -413,25 +421,28 @@
       <c r="C7" s="0" t="n">
         <v>2015</v>
       </c>
+      <c r="E7" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G9" s="6"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -469,50 +480,50 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
